--- a/templates/quotation.xlsx
+++ b/templates/quotation.xlsx
@@ -165,11 +165,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-3409]mmm\.\ dd\,\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-3409]mmm\.\ dd\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Trebuchet MS"/>
@@ -490,13 +490,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Century Gothic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
@@ -507,13 +500,6 @@
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -536,8 +522,14 @@
       <name val="Century Gothic"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,12 +624,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -649,6 +635,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0B663"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF404040"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,45 +905,33 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="44" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" xfId="44" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="48" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="21" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -958,38 +944,38 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" xfId="44" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" xfId="44" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="22" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="33" fillId="21" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1010,7 +996,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="44" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="37" fillId="21" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="37" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -1024,24 +1010,15 @@
     <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="21" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="22" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -1049,9 +1026,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="22" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1064,7 +1038,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="44" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="44" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1076,7 +1050,7 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -1089,21 +1063,32 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="21" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="21" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="55" fillId="21" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1112,7 +1097,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1122,7 +1107,7 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1135,7 +1120,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="44" fillId="21" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1148,8 +1133,12 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -1278,6 +1267,8 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF404040"/>
+      <color rgb="FFF2F2F2"/>
       <color rgb="FFF0B663"/>
       <color rgb="FFFCFFB8"/>
       <color rgb="FFD6FFE3"/>
@@ -1586,10 +1577,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1610,537 +1601,563 @@
   <sheetData>
     <row r="1" spans="1:11" ht="6.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="89" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="4.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="91" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="92" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="F8" s="89"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="30" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="6.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="40" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="44"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="40" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="44"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11" ht="6.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="49" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50" t="s">
+      <c r="E18" s="46"/>
+      <c r="F18" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="53" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="76" t="s">
+      <c r="I22" s="70"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="72" t="s">
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="82" t="s">
+      <c r="I23" s="71"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="77" t="s">
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="74"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="14"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="85" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="76" t="s">
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="86" t="s">
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="86"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="62" t="s">
+      <c r="H30" s="83"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="84" t="s">
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="65" t="s">
+      <c r="H31" s="81"/>
+      <c r="I31" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="18"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="14"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="60"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="85" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="18"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="81" t="s">
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="15"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="18"/>
-    </row>
-    <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="78" t="s">
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="15"/>
+    </row>
+    <row r="37" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="78"/>
-      <c r="I35" s="69" t="s">
+      <c r="H37" s="75"/>
+      <c r="I37" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="18"/>
-    </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="71"/>
-    </row>
-    <row r="37" spans="1:11" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="15"/>
+    </row>
+    <row r="38" spans="1:11" s="7" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="64"/>
+    </row>
+    <row r="39" spans="1:11" ht="7.35" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="E12:F12"/>
@@ -2149,30 +2166,30 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G25:I26"/>
-    <mergeCell ref="G30:I32"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C34:E35"/>
-    <mergeCell ref="C22:E26"/>
-    <mergeCell ref="C30:E33"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="G32:I34"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C36:E37"/>
+    <mergeCell ref="C24:E28"/>
+    <mergeCell ref="C32:E35"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G36:H36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I19:I21">
+  <conditionalFormatting sqref="I22:I23">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14">
-      <formula1>$L$21:$L$21</formula1>
+      <formula1>$L$23:$L$23</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
